--- a/Passwords.xlsx
+++ b/Passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TurboTage\Documents\Go\src\TfMottagning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049216D-D140-4801-9110-E0DF15D006EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B27289-89C8-4815-8042-58611EEF09AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="12030" xr2:uid="{44EC1209-23B5-4CAD-AB46-017EED156853}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Simon Lundberg</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C648350C-5B9A-4F1B-A7FA-B4657C6163FA}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +668,14 @@
         <v>532095</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>943503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
